--- a/CVX_Kenya/New Code/sens_Banana yield/case_20.xlsx
+++ b/CVX_Kenya/New Code/sens_Banana yield/case_20.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="600" firstSheet="0" activeTab="2" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="600" firstSheet="0" activeTab="5" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="S" sheetId="1" state="visible" r:id="rId1"/>
@@ -179,7 +179,7 @@
     <xf numFmtId="9" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="50">
+  <cellXfs count="58">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
@@ -289,6 +289,30 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="2" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="2" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
@@ -907,7 +931,7 @@
   </sheetPr>
   <dimension ref="A1:H3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
@@ -1580,10 +1604,10 @@
           <t>Semi0skilled labour 0 Semi0Arid South</t>
         </is>
       </c>
-      <c r="G15" s="49" t="n"/>
-      <c r="H15" s="49" t="n"/>
-      <c r="I15" s="49" t="n"/>
-      <c r="J15" s="49" t="n"/>
+      <c r="G15" s="57" t="n"/>
+      <c r="H15" s="57" t="n"/>
+      <c r="I15" s="57" t="n"/>
+      <c r="J15" s="57" t="n"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -2307,11 +2331,11 @@
   </sheetPr>
   <dimension ref="A1:K38"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="G9" sqref="G9"/>
+      <selection pane="bottomRight" activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="9.109375" defaultRowHeight="14.4"/>
@@ -2320,7 +2344,8 @@
     <col width="74.5546875" customWidth="1" style="19" min="2" max="2"/>
     <col width="12.6640625" bestFit="1" customWidth="1" style="19" min="3" max="3"/>
     <col width="14.5546875" bestFit="1" customWidth="1" style="19" min="4" max="4"/>
-    <col width="14.5546875" customWidth="1" style="19" min="5" max="8"/>
+    <col width="14.5546875" customWidth="1" style="2" min="5" max="5"/>
+    <col width="14.5546875" customWidth="1" style="19" min="6" max="8"/>
     <col width="15.33203125" bestFit="1" customWidth="1" style="19" min="9" max="9"/>
     <col width="186.44140625" bestFit="1" customWidth="1" style="19" min="10" max="10"/>
     <col width="20.5546875" customWidth="1" style="19" min="11" max="11"/>
@@ -2348,7 +2373,7 @@
           <t>Unit of measure</t>
         </is>
       </c>
-      <c r="E1" s="18" t="inlineStr">
+      <c r="E1" s="49" t="inlineStr">
         <is>
           <t>Sensitivity</t>
         </is>
@@ -2390,11 +2415,11 @@
           <t>Optimum shading level</t>
         </is>
       </c>
-      <c r="C2" s="21" t="n">
+      <c r="C2" s="56" t="n">
         <v>0.5</v>
       </c>
       <c r="D2" s="12" t="n"/>
-      <c r="E2" s="12" t="n"/>
+      <c r="E2" s="50" t="n"/>
       <c r="F2" s="12" t="n"/>
       <c r="G2" s="12" t="n"/>
       <c r="H2" s="12" t="n"/>
@@ -2415,7 +2440,7 @@
         <v>0.25</v>
       </c>
       <c r="D3" s="12" t="n"/>
-      <c r="E3" s="13" t="n"/>
+      <c r="E3" s="51" t="n"/>
       <c r="F3" s="13" t="n"/>
       <c r="G3" s="13" t="n"/>
       <c r="H3" s="13" t="n"/>
@@ -2432,7 +2457,7 @@
           <t>Required investment per smallholder</t>
         </is>
       </c>
-      <c r="C4" s="21" t="n">
+      <c r="C4" s="56" t="n">
         <v>0.265</v>
       </c>
       <c r="D4" s="13" t="inlineStr">
@@ -2440,7 +2465,7 @@
           <t>kSh***</t>
         </is>
       </c>
-      <c r="E4" s="13" t="n"/>
+      <c r="E4" s="51" t="n"/>
       <c r="F4" s="13" t="n"/>
       <c r="G4" s="13" t="n"/>
       <c r="H4" s="13" t="n"/>
@@ -2457,7 +2482,7 @@
           <t>hectare by smallholders</t>
         </is>
       </c>
-      <c r="C5" s="21" t="n">
+      <c r="C5" s="56" t="n">
         <v>88278</v>
       </c>
       <c r="D5" s="13" t="inlineStr">
@@ -2465,7 +2490,7 @@
           <t>ha</t>
         </is>
       </c>
-      <c r="E5" s="13" t="n"/>
+      <c r="E5" s="51" t="n"/>
       <c r="F5" s="13" t="n"/>
       <c r="G5" s="13" t="n"/>
       <c r="H5" s="13" t="n"/>
@@ -2486,18 +2511,18 @@
         <v>2000</v>
       </c>
       <c r="D6" s="12" t="n"/>
-      <c r="E6" s="44" t="inlineStr">
+      <c r="E6" s="51" t="inlineStr">
         <is>
           <t>Yes</t>
         </is>
       </c>
-      <c r="F6" s="44" t="n">
+      <c r="F6" s="56" t="n">
         <v>1800</v>
       </c>
-      <c r="G6" s="44" t="n">
+      <c r="G6" s="56" t="n">
         <v>2200</v>
       </c>
-      <c r="H6" s="44" t="n">
+      <c r="H6" s="56" t="n">
         <v>100</v>
       </c>
       <c r="I6" s="12" t="n"/>
@@ -2509,7 +2534,7 @@
           <t>Cost of purchasing a shading plant</t>
         </is>
       </c>
-      <c r="C7" s="21" t="n">
+      <c r="C7" s="56" t="n">
         <v>0.14</v>
       </c>
       <c r="D7" s="13" t="inlineStr">
@@ -2517,10 +2542,10 @@
           <t>kSh</t>
         </is>
       </c>
-      <c r="E7" s="13" t="n"/>
-      <c r="F7" s="13" t="n"/>
-      <c r="G7" s="13" t="n"/>
-      <c r="H7" s="13" t="n"/>
+      <c r="E7" s="51" t="n"/>
+      <c r="F7" s="56" t="n"/>
+      <c r="G7" s="56" t="n"/>
+      <c r="H7" s="56" t="n"/>
       <c r="I7" s="12" t="n"/>
       <c r="J7" s="26" t="inlineStr">
         <is>
@@ -2535,7 +2560,7 @@
           <t>Banana yield</t>
         </is>
       </c>
-      <c r="C8" s="21" t="n">
+      <c r="C8" s="56" t="n">
         <v>20</v>
       </c>
       <c r="D8" s="13" t="inlineStr">
@@ -2543,18 +2568,18 @@
           <t>kg/plant</t>
         </is>
       </c>
-      <c r="E8" s="13" t="inlineStr">
+      <c r="E8" s="51" t="inlineStr">
         <is>
           <t>Yes</t>
         </is>
       </c>
-      <c r="F8" s="13" t="n">
+      <c r="F8" s="56" t="n">
         <v>15</v>
       </c>
-      <c r="G8" s="13" t="n">
+      <c r="G8" s="56" t="n">
         <v>20</v>
       </c>
-      <c r="H8" s="13" t="n">
+      <c r="H8" s="56" t="n">
         <v>1</v>
       </c>
       <c r="I8" s="12" t="n"/>
@@ -2571,7 +2596,7 @@
           <t>Price of Banana</t>
         </is>
       </c>
-      <c r="C9" s="21" t="n">
+      <c r="C9" s="56" t="n">
         <v>7</v>
       </c>
       <c r="D9" s="13" t="inlineStr">
@@ -2579,10 +2604,10 @@
           <t>Sh/kg</t>
         </is>
       </c>
-      <c r="E9" s="13" t="n"/>
-      <c r="F9" s="13" t="n"/>
-      <c r="G9" s="13" t="n"/>
-      <c r="H9" s="13" t="n"/>
+      <c r="E9" s="51" t="n"/>
+      <c r="F9" s="56" t="n"/>
+      <c r="G9" s="56" t="n"/>
+      <c r="H9" s="56" t="n"/>
       <c r="I9" s="12" t="n"/>
       <c r="J9" s="26" t="inlineStr">
         <is>
@@ -2597,7 +2622,7 @@
           <t>Initial use of fruit of HR (HP)</t>
         </is>
       </c>
-      <c r="C10" s="21" t="n">
+      <c r="C10" s="56" t="n">
         <v>10410</v>
       </c>
       <c r="D10" s="13" t="inlineStr">
@@ -2605,7 +2630,7 @@
           <t>MSh</t>
         </is>
       </c>
-      <c r="E10" s="12" t="n"/>
+      <c r="E10" s="50" t="n"/>
       <c r="F10" s="12" t="n"/>
       <c r="G10" s="12" t="n"/>
       <c r="H10" s="12" t="n"/>
@@ -2622,11 +2647,11 @@
           <t>Increase in the N content of soil (min)</t>
         </is>
       </c>
-      <c r="C11" s="21" t="n">
+      <c r="C11" s="56" t="n">
         <v>1.4</v>
       </c>
       <c r="D11" s="13" t="n"/>
-      <c r="E11" s="13" t="n"/>
+      <c r="E11" s="51" t="n"/>
       <c r="F11" s="13" t="inlineStr">
         <is>
           <t>1.4-1.9,0.1</t>
@@ -2643,11 +2668,11 @@
           <t>Increase in the olsen p content of soil (min)</t>
         </is>
       </c>
-      <c r="C12" s="21" t="n">
+      <c r="C12" s="56" t="n">
         <v>1.4</v>
       </c>
       <c r="D12" s="13" t="n"/>
-      <c r="E12" s="13" t="n"/>
+      <c r="E12" s="51" t="n"/>
       <c r="F12" s="13" t="inlineStr">
         <is>
           <t>1.4-1.9,0.1</t>
@@ -2668,7 +2693,7 @@
         <v>800000</v>
       </c>
       <c r="D13" s="13" t="n"/>
-      <c r="E13" s="13" t="n"/>
+      <c r="E13" s="51" t="n"/>
       <c r="F13" s="13" t="n"/>
       <c r="G13" s="13" t="n"/>
       <c r="H13" s="13" t="n"/>
@@ -2689,7 +2714,7 @@
         <v>0.08347930509533361</v>
       </c>
       <c r="D14" s="13" t="n"/>
-      <c r="E14" s="13" t="n"/>
+      <c r="E14" s="51" t="n"/>
       <c r="F14" s="13" t="n"/>
       <c r="G14" s="13" t="n"/>
       <c r="H14" s="13" t="n"/>
@@ -2707,7 +2732,7 @@
         <v>-0.08</v>
       </c>
       <c r="D15" s="13" t="n"/>
-      <c r="E15" s="13" t="n"/>
+      <c r="E15" s="51" t="n"/>
       <c r="F15" s="13" t="inlineStr">
         <is>
           <t>0.08-0.15,0.014</t>
@@ -2733,7 +2758,7 @@
         <v>-0.02</v>
       </c>
       <c r="D16" s="13" t="n"/>
-      <c r="E16" s="13" t="n"/>
+      <c r="E16" s="51" t="n"/>
       <c r="F16" s="13" t="n"/>
       <c r="G16" s="13" t="n"/>
       <c r="H16" s="13" t="n"/>
@@ -2751,7 +2776,7 @@
         <v>3.8</v>
       </c>
       <c r="D17" s="13" t="n"/>
-      <c r="E17" s="13" t="n"/>
+      <c r="E17" s="51" t="n"/>
       <c r="F17" s="13" t="n"/>
       <c r="G17" s="13" t="n"/>
       <c r="H17" s="13" t="n"/>
@@ -2777,7 +2802,7 @@
         <v>1</v>
       </c>
       <c r="D18" s="14" t="n"/>
-      <c r="E18" s="14" t="n"/>
+      <c r="E18" s="52" t="n"/>
       <c r="F18" s="14" t="n"/>
       <c r="G18" s="14" t="n"/>
       <c r="H18" s="14" t="n"/>
@@ -2794,7 +2819,7 @@
         <v>0.014</v>
       </c>
       <c r="D19" s="14" t="n"/>
-      <c r="E19" s="14" t="n"/>
+      <c r="E19" s="52" t="n"/>
       <c r="F19" s="14" t="inlineStr">
         <is>
           <t>0.01-0.015,0.01</t>
@@ -2824,7 +2849,7 @@
         <v/>
       </c>
       <c r="D20" s="14" t="n"/>
-      <c r="E20" s="14" t="n"/>
+      <c r="E20" s="52" t="n"/>
       <c r="F20" s="14" t="n"/>
       <c r="G20" s="14" t="n"/>
       <c r="H20" s="14" t="n"/>
@@ -2850,7 +2875,7 @@
         <v/>
       </c>
       <c r="D21" s="14" t="n"/>
-      <c r="E21" s="14" t="n"/>
+      <c r="E21" s="52" t="n"/>
       <c r="F21" s="14" t="n"/>
       <c r="G21" s="14" t="n"/>
       <c r="H21" s="14" t="n"/>
@@ -2876,7 +2901,7 @@
         <v>-0.4</v>
       </c>
       <c r="D22" s="14" t="n"/>
-      <c r="E22" s="14" t="n"/>
+      <c r="E22" s="52" t="n"/>
       <c r="F22" s="14" t="n"/>
       <c r="G22" s="14" t="n"/>
       <c r="H22" s="14" t="n"/>
@@ -2903,7 +2928,7 @@
           <t>MSh</t>
         </is>
       </c>
-      <c r="E23" s="17" t="n"/>
+      <c r="E23" s="53" t="n"/>
       <c r="F23" s="17" t="n"/>
       <c r="G23" s="17" t="n"/>
       <c r="H23" s="17" t="n"/>
@@ -2926,7 +2951,7 @@
           <t>MSh</t>
         </is>
       </c>
-      <c r="E24" s="16" t="n"/>
+      <c r="E24" s="53" t="n"/>
       <c r="F24" s="16" t="n"/>
       <c r="G24" s="16" t="n"/>
       <c r="H24" s="16" t="n"/>
@@ -2949,7 +2974,7 @@
         <v/>
       </c>
       <c r="D25" s="27" t="n"/>
-      <c r="E25" s="27" t="n"/>
+      <c r="E25" s="54" t="n"/>
       <c r="F25" s="27" t="n"/>
       <c r="G25" s="27" t="n"/>
       <c r="H25" s="27" t="n"/>
@@ -2975,7 +3000,7 @@
         <v/>
       </c>
       <c r="D26" s="27" t="n"/>
-      <c r="E26" s="27" t="n"/>
+      <c r="E26" s="54" t="n"/>
       <c r="F26" s="27" t="n"/>
       <c r="G26" s="27" t="n"/>
       <c r="H26" s="27" t="n"/>
@@ -2997,7 +3022,7 @@
         <v/>
       </c>
       <c r="D27" s="27" t="n"/>
-      <c r="E27" s="27" t="n"/>
+      <c r="E27" s="54" t="n"/>
       <c r="F27" s="27" t="n"/>
       <c r="G27" s="27" t="n"/>
       <c r="H27" s="27" t="n"/>
@@ -3020,7 +3045,7 @@
         <v/>
       </c>
       <c r="D28" s="27" t="n"/>
-      <c r="E28" s="27" t="n"/>
+      <c r="E28" s="54" t="n"/>
       <c r="F28" s="27" t="n"/>
       <c r="G28" s="27" t="n"/>
       <c r="H28" s="27" t="n"/>
@@ -3047,7 +3072,7 @@
           <t>MSh</t>
         </is>
       </c>
-      <c r="E29" s="34" t="n"/>
+      <c r="E29" s="55" t="n"/>
       <c r="F29" s="34" t="n"/>
       <c r="G29" s="34" t="n"/>
       <c r="H29" s="34" t="n"/>
@@ -3069,7 +3094,7 @@
         <v/>
       </c>
       <c r="D30" s="34" t="n"/>
-      <c r="E30" s="34" t="n"/>
+      <c r="E30" s="55" t="n"/>
       <c r="F30" s="34" t="n"/>
       <c r="G30" s="34" t="n"/>
       <c r="H30" s="34" t="n"/>
@@ -3090,11 +3115,11 @@
           <t>Reduction in inputs (weighted)</t>
         </is>
       </c>
-      <c r="C31" s="35" t="n">
+      <c r="C31" s="55" t="n">
         <v>0</v>
       </c>
       <c r="D31" s="34" t="n"/>
-      <c r="E31" s="34" t="n"/>
+      <c r="E31" s="55" t="n"/>
       <c r="F31" s="34" t="n"/>
       <c r="G31" s="34" t="n"/>
       <c r="H31" s="34" t="n"/>
@@ -3120,7 +3145,7 @@
         <v/>
       </c>
       <c r="D32" s="34" t="n"/>
-      <c r="E32" s="34" t="n"/>
+      <c r="E32" s="55" t="n"/>
       <c r="F32" s="34" t="n"/>
       <c r="G32" s="34" t="n"/>
       <c r="H32" s="34" t="n"/>
@@ -3141,12 +3166,12 @@
           <t>Growth in labor (weighted)</t>
         </is>
       </c>
-      <c r="C33" s="35">
+      <c r="C33" s="55">
         <f>0.38*C14*C18</f>
         <v/>
       </c>
       <c r="D33" s="34" t="n"/>
-      <c r="E33" s="34" t="n"/>
+      <c r="E33" s="55" t="n"/>
       <c r="F33" s="34" t="n"/>
       <c r="G33" s="34" t="n"/>
       <c r="H33" s="34" t="n"/>
@@ -3167,12 +3192,12 @@
           <t>Reduction in use of Fruits HR (HP)</t>
         </is>
       </c>
-      <c r="C34" s="35">
+      <c r="C34" s="55">
         <f>-C24*C18/C10</f>
         <v/>
       </c>
       <c r="D34" s="34" t="n"/>
-      <c r="E34" s="34" t="n"/>
+      <c r="E34" s="55" t="n"/>
       <c r="F34" s="34" t="n"/>
       <c r="G34" s="34" t="n"/>
       <c r="H34" s="34" t="n"/>
@@ -3193,12 +3218,12 @@
           <t>Reduction in carbon emissions (Direct soil emissions)</t>
         </is>
       </c>
-      <c r="C35" s="35">
+      <c r="C35" s="55">
         <f>-C17*C18*C5/1000</f>
         <v/>
       </c>
       <c r="D35" s="34" t="n"/>
-      <c r="E35" s="34" t="n"/>
+      <c r="E35" s="55" t="n"/>
       <c r="F35" s="34" t="n"/>
       <c r="G35" s="34" t="n"/>
       <c r="H35" s="34" t="n"/>

--- a/CVX_Kenya/New Code/sens_Banana yield/case_20.xlsx
+++ b/CVX_Kenya/New Code/sens_Banana yield/case_20.xlsx
@@ -279,6 +279,30 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -289,30 +313,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="2" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="2" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
@@ -808,7 +808,7 @@
   <dimension ref="A1:G6"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="9.109375" defaultRowHeight="14.4"/>
@@ -2335,7 +2335,7 @@
       <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B6" sqref="B6"/>
+      <selection pane="bottomRight" activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="9.109375" defaultRowHeight="14.4"/>
@@ -2373,7 +2373,7 @@
           <t>Unit of measure</t>
         </is>
       </c>
-      <c r="E1" s="49" t="inlineStr">
+      <c r="E1" s="45" t="inlineStr">
         <is>
           <t>Sensitivity</t>
         </is>
@@ -2405,7 +2405,7 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="46" t="inlineStr">
+      <c r="A2" s="54" t="inlineStr">
         <is>
           <t>Inputs</t>
         </is>
@@ -2415,11 +2415,11 @@
           <t>Optimum shading level</t>
         </is>
       </c>
-      <c r="C2" s="56" t="n">
+      <c r="C2" s="52" t="n">
         <v>0.5</v>
       </c>
       <c r="D2" s="12" t="n"/>
-      <c r="E2" s="50" t="n"/>
+      <c r="E2" s="46" t="n"/>
       <c r="F2" s="12" t="n"/>
       <c r="G2" s="12" t="n"/>
       <c r="H2" s="12" t="n"/>
@@ -2440,7 +2440,7 @@
         <v>0.25</v>
       </c>
       <c r="D3" s="12" t="n"/>
-      <c r="E3" s="51" t="n"/>
+      <c r="E3" s="47" t="n"/>
       <c r="F3" s="13" t="n"/>
       <c r="G3" s="13" t="n"/>
       <c r="H3" s="13" t="n"/>
@@ -2457,7 +2457,7 @@
           <t>Required investment per smallholder</t>
         </is>
       </c>
-      <c r="C4" s="56" t="n">
+      <c r="C4" s="52" t="n">
         <v>0.265</v>
       </c>
       <c r="D4" s="13" t="inlineStr">
@@ -2465,7 +2465,7 @@
           <t>kSh***</t>
         </is>
       </c>
-      <c r="E4" s="51" t="n"/>
+      <c r="E4" s="47" t="n"/>
       <c r="F4" s="13" t="n"/>
       <c r="G4" s="13" t="n"/>
       <c r="H4" s="13" t="n"/>
@@ -2482,7 +2482,7 @@
           <t>hectare by smallholders</t>
         </is>
       </c>
-      <c r="C5" s="56" t="n">
+      <c r="C5" s="52" t="n">
         <v>88278</v>
       </c>
       <c r="D5" s="13" t="inlineStr">
@@ -2490,7 +2490,7 @@
           <t>ha</t>
         </is>
       </c>
-      <c r="E5" s="51" t="n"/>
+      <c r="E5" s="47" t="n"/>
       <c r="F5" s="13" t="n"/>
       <c r="G5" s="13" t="n"/>
       <c r="H5" s="13" t="n"/>
@@ -2511,18 +2511,18 @@
         <v>2000</v>
       </c>
       <c r="D6" s="12" t="n"/>
-      <c r="E6" s="51" t="inlineStr">
+      <c r="E6" s="47" t="inlineStr">
         <is>
           <t>Yes</t>
         </is>
       </c>
-      <c r="F6" s="56" t="n">
+      <c r="F6" s="52" t="n">
         <v>1800</v>
       </c>
-      <c r="G6" s="56" t="n">
+      <c r="G6" s="52" t="n">
         <v>2200</v>
       </c>
-      <c r="H6" s="56" t="n">
+      <c r="H6" s="52" t="n">
         <v>100</v>
       </c>
       <c r="I6" s="12" t="n"/>
@@ -2534,7 +2534,7 @@
           <t>Cost of purchasing a shading plant</t>
         </is>
       </c>
-      <c r="C7" s="56" t="n">
+      <c r="C7" s="52" t="n">
         <v>0.14</v>
       </c>
       <c r="D7" s="13" t="inlineStr">
@@ -2542,10 +2542,10 @@
           <t>kSh</t>
         </is>
       </c>
-      <c r="E7" s="51" t="n"/>
-      <c r="F7" s="56" t="n"/>
-      <c r="G7" s="56" t="n"/>
-      <c r="H7" s="56" t="n"/>
+      <c r="E7" s="47" t="n"/>
+      <c r="F7" s="52" t="n"/>
+      <c r="G7" s="52" t="n"/>
+      <c r="H7" s="52" t="n"/>
       <c r="I7" s="12" t="n"/>
       <c r="J7" s="26" t="inlineStr">
         <is>
@@ -2560,7 +2560,7 @@
           <t>Banana yield</t>
         </is>
       </c>
-      <c r="C8" s="56" t="n">
+      <c r="C8" s="52" t="n">
         <v>20</v>
       </c>
       <c r="D8" s="13" t="inlineStr">
@@ -2568,18 +2568,18 @@
           <t>kg/plant</t>
         </is>
       </c>
-      <c r="E8" s="51" t="inlineStr">
+      <c r="E8" s="47" t="inlineStr">
         <is>
           <t>Yes</t>
         </is>
       </c>
-      <c r="F8" s="56" t="n">
+      <c r="F8" s="52" t="n">
         <v>15</v>
       </c>
-      <c r="G8" s="56" t="n">
+      <c r="G8" s="52" t="n">
         <v>20</v>
       </c>
-      <c r="H8" s="56" t="n">
+      <c r="H8" s="52" t="n">
         <v>1</v>
       </c>
       <c r="I8" s="12" t="n"/>
@@ -2596,7 +2596,7 @@
           <t>Price of Banana</t>
         </is>
       </c>
-      <c r="C9" s="56" t="n">
+      <c r="C9" s="52" t="n">
         <v>7</v>
       </c>
       <c r="D9" s="13" t="inlineStr">
@@ -2604,10 +2604,10 @@
           <t>Sh/kg</t>
         </is>
       </c>
-      <c r="E9" s="51" t="n"/>
-      <c r="F9" s="56" t="n"/>
-      <c r="G9" s="56" t="n"/>
-      <c r="H9" s="56" t="n"/>
+      <c r="E9" s="47" t="n"/>
+      <c r="F9" s="52" t="n"/>
+      <c r="G9" s="52" t="n"/>
+      <c r="H9" s="52" t="n"/>
       <c r="I9" s="12" t="n"/>
       <c r="J9" s="26" t="inlineStr">
         <is>
@@ -2622,7 +2622,7 @@
           <t>Initial use of fruit of HR (HP)</t>
         </is>
       </c>
-      <c r="C10" s="56" t="n">
+      <c r="C10" s="52" t="n">
         <v>10410</v>
       </c>
       <c r="D10" s="13" t="inlineStr">
@@ -2630,7 +2630,7 @@
           <t>MSh</t>
         </is>
       </c>
-      <c r="E10" s="50" t="n"/>
+      <c r="E10" s="46" t="n"/>
       <c r="F10" s="12" t="n"/>
       <c r="G10" s="12" t="n"/>
       <c r="H10" s="12" t="n"/>
@@ -2647,11 +2647,11 @@
           <t>Increase in the N content of soil (min)</t>
         </is>
       </c>
-      <c r="C11" s="56" t="n">
+      <c r="C11" s="52" t="n">
         <v>1.4</v>
       </c>
       <c r="D11" s="13" t="n"/>
-      <c r="E11" s="51" t="n"/>
+      <c r="E11" s="47" t="n"/>
       <c r="F11" s="13" t="inlineStr">
         <is>
           <t>1.4-1.9,0.1</t>
@@ -2668,11 +2668,11 @@
           <t>Increase in the olsen p content of soil (min)</t>
         </is>
       </c>
-      <c r="C12" s="56" t="n">
+      <c r="C12" s="52" t="n">
         <v>1.4</v>
       </c>
       <c r="D12" s="13" t="n"/>
-      <c r="E12" s="51" t="n"/>
+      <c r="E12" s="47" t="n"/>
       <c r="F12" s="13" t="inlineStr">
         <is>
           <t>1.4-1.9,0.1</t>
@@ -2693,7 +2693,7 @@
         <v>800000</v>
       </c>
       <c r="D13" s="13" t="n"/>
-      <c r="E13" s="51" t="n"/>
+      <c r="E13" s="47" t="n"/>
       <c r="F13" s="13" t="n"/>
       <c r="G13" s="13" t="n"/>
       <c r="H13" s="13" t="n"/>
@@ -2714,7 +2714,7 @@
         <v>0.08347930509533361</v>
       </c>
       <c r="D14" s="13" t="n"/>
-      <c r="E14" s="51" t="n"/>
+      <c r="E14" s="47" t="n"/>
       <c r="F14" s="13" t="n"/>
       <c r="G14" s="13" t="n"/>
       <c r="H14" s="13" t="n"/>
@@ -2722,7 +2722,7 @@
       <c r="J14" s="13" t="n"/>
     </row>
     <row r="15">
-      <c r="A15" s="46" t="n"/>
+      <c r="A15" s="54" t="n"/>
       <c r="B15" s="13" t="inlineStr">
         <is>
           <t>Reduction in the physical productivity based on opt level of shading</t>
@@ -2732,7 +2732,7 @@
         <v>-0.08</v>
       </c>
       <c r="D15" s="13" t="n"/>
-      <c r="E15" s="51" t="n"/>
+      <c r="E15" s="47" t="n"/>
       <c r="F15" s="13" t="inlineStr">
         <is>
           <t>0.08-0.15,0.014</t>
@@ -2748,7 +2748,7 @@
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="46" t="n"/>
+      <c r="A16" s="54" t="n"/>
       <c r="B16" s="13" t="inlineStr">
         <is>
           <t>Reduction in the monetary productivity considering potential price growth</t>
@@ -2758,7 +2758,7 @@
         <v>-0.02</v>
       </c>
       <c r="D16" s="13" t="n"/>
-      <c r="E16" s="51" t="n"/>
+      <c r="E16" s="47" t="n"/>
       <c r="F16" s="13" t="n"/>
       <c r="G16" s="13" t="n"/>
       <c r="H16" s="13" t="n"/>
@@ -2766,7 +2766,7 @@
       <c r="J16" s="13" t="n"/>
     </row>
     <row r="17">
-      <c r="A17" s="46" t="n"/>
+      <c r="A17" s="54" t="n"/>
       <c r="B17" s="13" t="inlineStr">
         <is>
           <t>Increase in the total soil carbon stocks</t>
@@ -2776,7 +2776,7 @@
         <v>3.8</v>
       </c>
       <c r="D17" s="13" t="n"/>
-      <c r="E17" s="51" t="n"/>
+      <c r="E17" s="47" t="n"/>
       <c r="F17" s="13" t="n"/>
       <c r="G17" s="13" t="n"/>
       <c r="H17" s="13" t="n"/>
@@ -2788,7 +2788,7 @@
       </c>
     </row>
     <row r="18">
-      <c r="A18" s="45" t="inlineStr">
+      <c r="A18" s="53" t="inlineStr">
         <is>
           <t>Assumptions</t>
         </is>
@@ -2802,7 +2802,7 @@
         <v>1</v>
       </c>
       <c r="D18" s="14" t="n"/>
-      <c r="E18" s="52" t="n"/>
+      <c r="E18" s="48" t="n"/>
       <c r="F18" s="14" t="n"/>
       <c r="G18" s="14" t="n"/>
       <c r="H18" s="14" t="n"/>
@@ -2819,7 +2819,7 @@
         <v>0.014</v>
       </c>
       <c r="D19" s="14" t="n"/>
-      <c r="E19" s="52" t="n"/>
+      <c r="E19" s="48" t="n"/>
       <c r="F19" s="14" t="inlineStr">
         <is>
           <t>0.01-0.015,0.01</t>
@@ -2849,7 +2849,7 @@
         <v/>
       </c>
       <c r="D20" s="14" t="n"/>
-      <c r="E20" s="52" t="n"/>
+      <c r="E20" s="48" t="n"/>
       <c r="F20" s="14" t="n"/>
       <c r="G20" s="14" t="n"/>
       <c r="H20" s="14" t="n"/>
@@ -2875,7 +2875,7 @@
         <v/>
       </c>
       <c r="D21" s="14" t="n"/>
-      <c r="E21" s="52" t="n"/>
+      <c r="E21" s="48" t="n"/>
       <c r="F21" s="14" t="n"/>
       <c r="G21" s="14" t="n"/>
       <c r="H21" s="14" t="n"/>
@@ -2891,7 +2891,7 @@
       </c>
     </row>
     <row r="22">
-      <c r="A22" s="45" t="n"/>
+      <c r="A22" s="53" t="n"/>
       <c r="B22" s="14" t="inlineStr">
         <is>
           <t>Reduction in Potassium fertilizer</t>
@@ -2901,7 +2901,7 @@
         <v>-0.4</v>
       </c>
       <c r="D22" s="14" t="n"/>
-      <c r="E22" s="52" t="n"/>
+      <c r="E22" s="48" t="n"/>
       <c r="F22" s="14" t="n"/>
       <c r="G22" s="14" t="n"/>
       <c r="H22" s="14" t="n"/>
@@ -2928,7 +2928,7 @@
           <t>MSh</t>
         </is>
       </c>
-      <c r="E23" s="53" t="n"/>
+      <c r="E23" s="49" t="n"/>
       <c r="F23" s="17" t="n"/>
       <c r="G23" s="17" t="n"/>
       <c r="H23" s="17" t="n"/>
@@ -2951,7 +2951,7 @@
           <t>MSh</t>
         </is>
       </c>
-      <c r="E24" s="53" t="n"/>
+      <c r="E24" s="49" t="n"/>
       <c r="F24" s="16" t="n"/>
       <c r="G24" s="16" t="n"/>
       <c r="H24" s="16" t="n"/>
@@ -2963,7 +2963,7 @@
       <c r="J24" s="17" t="n"/>
     </row>
     <row r="25">
-      <c r="A25" s="47" t="n"/>
+      <c r="A25" s="55" t="n"/>
       <c r="B25" s="27" t="inlineStr">
         <is>
           <t>Reduction in the monetary productivity considering potential price growth (covered portion)</t>
@@ -2974,7 +2974,7 @@
         <v/>
       </c>
       <c r="D25" s="27" t="n"/>
-      <c r="E25" s="54" t="n"/>
+      <c r="E25" s="50" t="n"/>
       <c r="F25" s="27" t="n"/>
       <c r="G25" s="27" t="n"/>
       <c r="H25" s="27" t="n"/>
@@ -3000,7 +3000,7 @@
         <v/>
       </c>
       <c r="D26" s="27" t="n"/>
-      <c r="E26" s="54" t="n"/>
+      <c r="E26" s="50" t="n"/>
       <c r="F26" s="27" t="n"/>
       <c r="G26" s="27" t="n"/>
       <c r="H26" s="27" t="n"/>
@@ -3022,7 +3022,7 @@
         <v/>
       </c>
       <c r="D27" s="27" t="n"/>
-      <c r="E27" s="54" t="n"/>
+      <c r="E27" s="50" t="n"/>
       <c r="F27" s="27" t="n"/>
       <c r="G27" s="27" t="n"/>
       <c r="H27" s="27" t="n"/>
@@ -3034,7 +3034,7 @@
       <c r="J27" s="27" t="n"/>
     </row>
     <row r="28">
-      <c r="A28" s="47" t="n"/>
+      <c r="A28" s="55" t="n"/>
       <c r="B28" s="27" t="inlineStr">
         <is>
           <t>Reduction in Phosphorus fertilizer weighted</t>
@@ -3045,7 +3045,7 @@
         <v/>
       </c>
       <c r="D28" s="27" t="n"/>
-      <c r="E28" s="54" t="n"/>
+      <c r="E28" s="50" t="n"/>
       <c r="F28" s="27" t="n"/>
       <c r="G28" s="27" t="n"/>
       <c r="H28" s="27" t="n"/>
@@ -3053,7 +3053,7 @@
       <c r="J28" s="27" t="n"/>
     </row>
     <row r="29">
-      <c r="A29" s="48" t="inlineStr">
+      <c r="A29" s="56" t="inlineStr">
         <is>
           <t>Modeled (aggregated)</t>
         </is>
@@ -3072,7 +3072,7 @@
           <t>MSh</t>
         </is>
       </c>
-      <c r="E29" s="55" t="n"/>
+      <c r="E29" s="51" t="n"/>
       <c r="F29" s="34" t="n"/>
       <c r="G29" s="34" t="n"/>
       <c r="H29" s="34" t="n"/>
@@ -3094,7 +3094,7 @@
         <v/>
       </c>
       <c r="D30" s="34" t="n"/>
-      <c r="E30" s="55" t="n"/>
+      <c r="E30" s="51" t="n"/>
       <c r="F30" s="34" t="n"/>
       <c r="G30" s="34" t="n"/>
       <c r="H30" s="34" t="n"/>
@@ -3115,11 +3115,11 @@
           <t>Reduction in inputs (weighted)</t>
         </is>
       </c>
-      <c r="C31" s="55" t="n">
+      <c r="C31" s="51" t="n">
         <v>0</v>
       </c>
       <c r="D31" s="34" t="n"/>
-      <c r="E31" s="55" t="n"/>
+      <c r="E31" s="51" t="n"/>
       <c r="F31" s="34" t="n"/>
       <c r="G31" s="34" t="n"/>
       <c r="H31" s="34" t="n"/>
@@ -3145,7 +3145,7 @@
         <v/>
       </c>
       <c r="D32" s="34" t="n"/>
-      <c r="E32" s="55" t="n"/>
+      <c r="E32" s="51" t="n"/>
       <c r="F32" s="34" t="n"/>
       <c r="G32" s="34" t="n"/>
       <c r="H32" s="34" t="n"/>
@@ -3166,12 +3166,12 @@
           <t>Growth in labor (weighted)</t>
         </is>
       </c>
-      <c r="C33" s="55">
+      <c r="C33" s="51">
         <f>0.38*C14*C18</f>
         <v/>
       </c>
       <c r="D33" s="34" t="n"/>
-      <c r="E33" s="55" t="n"/>
+      <c r="E33" s="51" t="n"/>
       <c r="F33" s="34" t="n"/>
       <c r="G33" s="34" t="n"/>
       <c r="H33" s="34" t="n"/>
@@ -3192,12 +3192,12 @@
           <t>Reduction in use of Fruits HR (HP)</t>
         </is>
       </c>
-      <c r="C34" s="55">
+      <c r="C34" s="51">
         <f>-C24*C18/C10</f>
         <v/>
       </c>
       <c r="D34" s="34" t="n"/>
-      <c r="E34" s="55" t="n"/>
+      <c r="E34" s="51" t="n"/>
       <c r="F34" s="34" t="n"/>
       <c r="G34" s="34" t="n"/>
       <c r="H34" s="34" t="n"/>
@@ -3218,12 +3218,12 @@
           <t>Reduction in carbon emissions (Direct soil emissions)</t>
         </is>
       </c>
-      <c r="C35" s="55">
+      <c r="C35" s="51">
         <f>-C17*C18*C5/1000</f>
         <v/>
       </c>
       <c r="D35" s="34" t="n"/>
-      <c r="E35" s="55" t="n"/>
+      <c r="E35" s="51" t="n"/>
       <c r="F35" s="34" t="n"/>
       <c r="G35" s="34" t="n"/>
       <c r="H35" s="34" t="n"/>

--- a/CVX_Kenya/New Code/sens_Banana yield/case_20.xlsx
+++ b/CVX_Kenya/New Code/sens_Banana yield/case_20.xlsx
@@ -805,10 +805,10 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G6"/>
+  <dimension ref="A1:G5"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="9.109375" defaultRowHeight="14.4"/>
@@ -882,41 +882,13 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="3" t="n">
-        <v>2</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>Mining (commodity)</t>
-        </is>
-      </c>
-      <c r="C3" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="D3" s="2" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="E3" s="42" t="n">
-        <v>0.974025974025972</v>
-      </c>
-      <c r="F3" s="42" t="n">
-        <v>1.006493506493504</v>
-      </c>
-      <c r="G3" s="42">
-        <f>(F3-E3)/5</f>
-        <v/>
-      </c>
+      <c r="A3" s="3" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="3" t="n"/>
     </row>
     <row r="5">
-      <c r="A5" s="3" t="n"/>
-    </row>
-    <row r="6">
-      <c r="A6" s="4" t="n"/>
+      <c r="A5" s="4" t="n"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2329,13 +2301,13 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K38"/>
+  <dimension ref="A1:L38"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C6" sqref="C6"/>
+      <selection pane="bottomRight" activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="9.109375" defaultRowHeight="14.4"/>
@@ -2345,11 +2317,11 @@
     <col width="12.6640625" bestFit="1" customWidth="1" style="19" min="3" max="3"/>
     <col width="14.5546875" bestFit="1" customWidth="1" style="19" min="4" max="4"/>
     <col width="14.5546875" customWidth="1" style="2" min="5" max="5"/>
-    <col width="14.5546875" customWidth="1" style="19" min="6" max="8"/>
-    <col width="15.33203125" bestFit="1" customWidth="1" style="19" min="9" max="9"/>
-    <col width="186.44140625" bestFit="1" customWidth="1" style="19" min="10" max="10"/>
-    <col width="20.5546875" customWidth="1" style="19" min="11" max="11"/>
-    <col width="9.109375" customWidth="1" style="19" min="12" max="16384"/>
+    <col width="14.5546875" customWidth="1" style="19" min="6" max="9"/>
+    <col width="15.33203125" bestFit="1" customWidth="1" style="19" min="10" max="10"/>
+    <col width="186.44140625" bestFit="1" customWidth="1" style="19" min="11" max="11"/>
+    <col width="20.5546875" customWidth="1" style="19" min="12" max="12"/>
+    <col width="9.109375" customWidth="1" style="19" min="13" max="16384"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -2395,10 +2367,15 @@
       </c>
       <c r="I1" s="18" t="inlineStr">
         <is>
+          <t>Affected Parameters</t>
+        </is>
+      </c>
+      <c r="J1" s="18" t="inlineStr">
+        <is>
           <t>Reference matrix</t>
         </is>
       </c>
-      <c r="J1" s="18" t="inlineStr">
+      <c r="K1" s="18" t="inlineStr">
         <is>
           <t>Reference</t>
         </is>
@@ -2424,7 +2401,8 @@
       <c r="G2" s="12" t="n"/>
       <c r="H2" s="12" t="n"/>
       <c r="I2" s="12" t="n"/>
-      <c r="J2" s="13" t="inlineStr">
+      <c r="J2" s="12" t="n"/>
+      <c r="K2" s="13" t="inlineStr">
         <is>
           <t>Exploring adaptation strategies of coffee production to climate change using a process_based model</t>
         </is>
@@ -2444,8 +2422,9 @@
       <c r="F3" s="13" t="n"/>
       <c r="G3" s="13" t="n"/>
       <c r="H3" s="13" t="n"/>
-      <c r="I3" s="12" t="n"/>
-      <c r="J3" s="13" t="inlineStr">
+      <c r="I3" s="13" t="n"/>
+      <c r="J3" s="12" t="n"/>
+      <c r="K3" s="13" t="inlineStr">
         <is>
           <t>Exploring adaptation strategies of coffee production to climate change using a process_based model</t>
         </is>
@@ -2469,8 +2448,9 @@
       <c r="F4" s="13" t="n"/>
       <c r="G4" s="13" t="n"/>
       <c r="H4" s="13" t="n"/>
-      <c r="I4" s="12" t="n"/>
-      <c r="J4" s="13" t="inlineStr">
+      <c r="I4" s="13" t="n"/>
+      <c r="J4" s="12" t="n"/>
+      <c r="K4" s="13" t="inlineStr">
         <is>
           <t>Agroforestry coffee cultivation in combination with mulching, trenches and organic composting in Uganda, FAO (2017)</t>
         </is>
@@ -2494,8 +2474,9 @@
       <c r="F5" s="13" t="n"/>
       <c r="G5" s="13" t="n"/>
       <c r="H5" s="13" t="n"/>
-      <c r="I5" s="12" t="n"/>
-      <c r="J5" s="13" t="inlineStr">
+      <c r="I5" s="13" t="n"/>
+      <c r="J5" s="12" t="n"/>
+      <c r="K5" s="13" t="inlineStr">
         <is>
           <t>International Coffee Organization</t>
         </is>
@@ -2525,8 +2506,13 @@
       <c r="H6" s="52" t="n">
         <v>100</v>
       </c>
-      <c r="I6" s="12" t="n"/>
+      <c r="I6" s="52" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Y </t>
+        </is>
+      </c>
       <c r="J6" s="12" t="n"/>
+      <c r="K6" s="12" t="n"/>
     </row>
     <row r="7">
       <c r="B7" s="13" t="inlineStr">
@@ -2546,13 +2532,14 @@
       <c r="F7" s="52" t="n"/>
       <c r="G7" s="52" t="n"/>
       <c r="H7" s="52" t="n"/>
-      <c r="I7" s="12" t="n"/>
-      <c r="J7" s="26" t="inlineStr">
+      <c r="I7" s="52" t="n"/>
+      <c r="J7" s="12" t="n"/>
+      <c r="K7" s="26" t="inlineStr">
         <is>
           <t>https://www.perfectdailygrind.com/2015/06/uncovered-how-many-dollars-does-it-cost-a-farmer-to-plant-a-basic-plot-of-coffee/</t>
         </is>
       </c>
-      <c r="K7" s="25" t="n"/>
+      <c r="L7" s="25" t="n"/>
     </row>
     <row r="8">
       <c r="B8" s="13" t="inlineStr">
@@ -2582,13 +2569,18 @@
       <c r="H8" s="52" t="n">
         <v>1</v>
       </c>
-      <c r="I8" s="12" t="n"/>
-      <c r="J8" s="26" t="inlineStr">
+      <c r="I8" s="52" t="inlineStr">
+        <is>
+          <t>Y,VA</t>
+        </is>
+      </c>
+      <c r="J8" s="12" t="n"/>
+      <c r="K8" s="26" t="inlineStr">
         <is>
           <t>Banana-coffee system cropping guide</t>
         </is>
       </c>
-      <c r="K8" s="25" t="n"/>
+      <c r="L8" s="25" t="n"/>
     </row>
     <row r="9">
       <c r="B9" s="13" t="inlineStr">
@@ -2608,13 +2600,14 @@
       <c r="F9" s="52" t="n"/>
       <c r="G9" s="52" t="n"/>
       <c r="H9" s="52" t="n"/>
-      <c r="I9" s="12" t="n"/>
-      <c r="J9" s="26" t="inlineStr">
+      <c r="I9" s="52" t="n"/>
+      <c r="J9" s="12" t="n"/>
+      <c r="K9" s="26" t="inlineStr">
         <is>
           <t>Banana-coffee system cropping guide</t>
         </is>
       </c>
-      <c r="K9" s="25" t="n"/>
+      <c r="L9" s="25" t="n"/>
     </row>
     <row r="10">
       <c r="B10" s="13" t="inlineStr">
@@ -2634,12 +2627,13 @@
       <c r="F10" s="12" t="n"/>
       <c r="G10" s="12" t="n"/>
       <c r="H10" s="12" t="n"/>
-      <c r="I10" s="13" t="inlineStr">
+      <c r="I10" s="12" t="n"/>
+      <c r="J10" s="13" t="inlineStr">
         <is>
           <t>V</t>
         </is>
       </c>
-      <c r="J10" s="13" t="n"/>
+      <c r="K10" s="13" t="n"/>
     </row>
     <row r="11">
       <c r="B11" s="13" t="inlineStr">
@@ -2659,8 +2653,9 @@
       </c>
       <c r="G11" s="13" t="n"/>
       <c r="H11" s="13" t="n"/>
-      <c r="I11" s="12" t="n"/>
+      <c r="I11" s="13" t="n"/>
       <c r="J11" s="12" t="n"/>
+      <c r="K11" s="12" t="n"/>
     </row>
     <row r="12">
       <c r="B12" s="13" t="inlineStr">
@@ -2680,8 +2675,9 @@
       </c>
       <c r="G12" s="13" t="n"/>
       <c r="H12" s="13" t="n"/>
-      <c r="I12" s="12" t="n"/>
+      <c r="I12" s="13" t="n"/>
       <c r="J12" s="12" t="n"/>
+      <c r="K12" s="12" t="n"/>
     </row>
     <row r="13">
       <c r="B13" s="13" t="inlineStr">
@@ -2698,7 +2694,8 @@
       <c r="G13" s="13" t="n"/>
       <c r="H13" s="13" t="n"/>
       <c r="I13" s="13" t="n"/>
-      <c r="J13" s="13" t="inlineStr">
+      <c r="J13" s="13" t="n"/>
+      <c r="K13" s="13" t="inlineStr">
         <is>
           <t>Country Coffee Profile: Kenya, International Coffee Organization (2019)</t>
         </is>
@@ -2720,6 +2717,7 @@
       <c r="H14" s="13" t="n"/>
       <c r="I14" s="13" t="n"/>
       <c r="J14" s="13" t="n"/>
+      <c r="K14" s="13" t="n"/>
     </row>
     <row r="15">
       <c r="A15" s="54" t="n"/>
@@ -2741,7 +2739,8 @@
       <c r="G15" s="13" t="n"/>
       <c r="H15" s="13" t="n"/>
       <c r="I15" s="13" t="n"/>
-      <c r="J15" s="13" t="inlineStr">
+      <c r="J15" s="13" t="n"/>
+      <c r="K15" s="13" t="inlineStr">
         <is>
           <t>Exploring adaptation strategies of coffee production to climate change using a process_based model</t>
         </is>
@@ -2764,6 +2763,7 @@
       <c r="H16" s="13" t="n"/>
       <c r="I16" s="13" t="n"/>
       <c r="J16" s="13" t="n"/>
+      <c r="K16" s="13" t="n"/>
     </row>
     <row r="17">
       <c r="A17" s="54" t="n"/>
@@ -2781,7 +2781,8 @@
       <c r="G17" s="13" t="n"/>
       <c r="H17" s="13" t="n"/>
       <c r="I17" s="13" t="n"/>
-      <c r="J17" s="13" t="inlineStr">
+      <c r="J17" s="13" t="n"/>
+      <c r="K17" s="13" t="inlineStr">
         <is>
           <t>Coffee-Banana Intercropping: Implementation guidance for policymakers and investors</t>
         </is>
@@ -2808,6 +2809,7 @@
       <c r="H18" s="14" t="n"/>
       <c r="I18" s="14" t="n"/>
       <c r="J18" s="14" t="n"/>
+      <c r="K18" s="14" t="n"/>
     </row>
     <row r="19">
       <c r="B19" s="14" t="inlineStr">
@@ -2827,12 +2829,13 @@
       </c>
       <c r="G19" s="14" t="n"/>
       <c r="H19" s="14" t="n"/>
-      <c r="I19" s="14" t="inlineStr">
+      <c r="I19" s="14" t="n"/>
+      <c r="J19" s="14" t="inlineStr">
         <is>
           <t>ok</t>
         </is>
       </c>
-      <c r="J19" s="14" t="inlineStr">
+      <c r="K19" s="14" t="inlineStr">
         <is>
           <t>https://www.perfectdailygrind.com/2015/06/uncovered-how-many-dollars-does-it-cost-a-farmer-to-plant-a-basic-plot-of-coffee/</t>
         </is>
@@ -2853,12 +2856,13 @@
       <c r="F20" s="14" t="n"/>
       <c r="G20" s="14" t="n"/>
       <c r="H20" s="14" t="n"/>
-      <c r="I20" s="14" t="inlineStr">
+      <c r="I20" s="14" t="n"/>
+      <c r="J20" s="14" t="inlineStr">
         <is>
           <t>Z</t>
         </is>
       </c>
-      <c r="J20" s="14" t="inlineStr">
+      <c r="K20" s="14" t="inlineStr">
         <is>
           <t>Shade trees have higher impact on soil nutrient availability and food web in organic than conventional coffee agroforestry</t>
         </is>
@@ -2879,12 +2883,13 @@
       <c r="F21" s="14" t="n"/>
       <c r="G21" s="14" t="n"/>
       <c r="H21" s="14" t="n"/>
-      <c r="I21" s="14" t="inlineStr">
+      <c r="I21" s="14" t="n"/>
+      <c r="J21" s="14" t="inlineStr">
         <is>
           <t>Z</t>
         </is>
       </c>
-      <c r="J21" s="14" t="inlineStr">
+      <c r="K21" s="14" t="inlineStr">
         <is>
           <t>Shade trees have higher impact on soil nutrient availability and food web in organic than conventional coffee agroforestry</t>
         </is>
@@ -2907,6 +2912,7 @@
       <c r="H22" s="14" t="n"/>
       <c r="I22" s="14" t="n"/>
       <c r="J22" s="14" t="n"/>
+      <c r="K22" s="14" t="n"/>
     </row>
     <row r="23">
       <c r="A23" s="29" t="inlineStr">
@@ -2934,6 +2940,7 @@
       <c r="H23" s="17" t="n"/>
       <c r="I23" s="17" t="n"/>
       <c r="J23" s="17" t="n"/>
+      <c r="K23" s="17" t="n"/>
     </row>
     <row r="24">
       <c r="A24" s="29" t="n"/>
@@ -2955,12 +2962,13 @@
       <c r="F24" s="16" t="n"/>
       <c r="G24" s="16" t="n"/>
       <c r="H24" s="16" t="n"/>
-      <c r="I24" s="16" t="inlineStr">
+      <c r="I24" s="16" t="n"/>
+      <c r="J24" s="16" t="inlineStr">
         <is>
           <t>V</t>
         </is>
       </c>
-      <c r="J24" s="17" t="n"/>
+      <c r="K24" s="17" t="n"/>
     </row>
     <row r="25">
       <c r="A25" s="55" t="n"/>
@@ -2978,12 +2986,13 @@
       <c r="F25" s="27" t="n"/>
       <c r="G25" s="27" t="n"/>
       <c r="H25" s="27" t="n"/>
-      <c r="I25" s="27" t="inlineStr">
+      <c r="I25" s="27" t="n"/>
+      <c r="J25" s="27" t="inlineStr">
         <is>
           <t>Z</t>
         </is>
       </c>
-      <c r="J25" s="27" t="inlineStr">
+      <c r="K25" s="27" t="inlineStr">
         <is>
           <t>Shade: A key factor for coffee sustainability and quality</t>
         </is>
@@ -3004,12 +3013,13 @@
       <c r="F26" s="27" t="n"/>
       <c r="G26" s="27" t="n"/>
       <c r="H26" s="27" t="n"/>
-      <c r="I26" s="27" t="inlineStr">
+      <c r="I26" s="27" t="n"/>
+      <c r="J26" s="27" t="inlineStr">
         <is>
           <t>Z</t>
         </is>
       </c>
-      <c r="J26" s="27" t="n"/>
+      <c r="K26" s="27" t="n"/>
     </row>
     <row r="27">
       <c r="B27" s="27" t="inlineStr">
@@ -3026,12 +3036,13 @@
       <c r="F27" s="27" t="n"/>
       <c r="G27" s="27" t="n"/>
       <c r="H27" s="27" t="n"/>
-      <c r="I27" s="27" t="inlineStr">
+      <c r="I27" s="27" t="n"/>
+      <c r="J27" s="27" t="inlineStr">
         <is>
           <t>Z</t>
         </is>
       </c>
-      <c r="J27" s="27" t="n"/>
+      <c r="K27" s="27" t="n"/>
     </row>
     <row r="28">
       <c r="A28" s="55" t="n"/>
@@ -3051,6 +3062,7 @@
       <c r="H28" s="27" t="n"/>
       <c r="I28" s="27" t="n"/>
       <c r="J28" s="27" t="n"/>
+      <c r="K28" s="27" t="n"/>
     </row>
     <row r="29">
       <c r="A29" s="56" t="inlineStr">
@@ -3076,12 +3088,13 @@
       <c r="F29" s="34" t="n"/>
       <c r="G29" s="34" t="n"/>
       <c r="H29" s="34" t="n"/>
-      <c r="I29" s="34" t="inlineStr">
+      <c r="I29" s="34" t="n"/>
+      <c r="J29" s="34" t="inlineStr">
         <is>
           <t>Y</t>
         </is>
       </c>
-      <c r="J29" s="34" t="n"/>
+      <c r="K29" s="34" t="n"/>
     </row>
     <row r="30">
       <c r="B30" s="34" t="inlineStr">
@@ -3098,12 +3111,13 @@
       <c r="F30" s="34" t="n"/>
       <c r="G30" s="34" t="n"/>
       <c r="H30" s="34" t="n"/>
-      <c r="I30" s="34" t="inlineStr">
+      <c r="I30" s="34" t="n"/>
+      <c r="J30" s="34" t="inlineStr">
         <is>
           <t>Z</t>
         </is>
       </c>
-      <c r="J30" s="34" t="inlineStr">
+      <c r="K30" s="34" t="inlineStr">
         <is>
           <t>Shade: A key factor for coffee sustainability and quality</t>
         </is>
@@ -3123,12 +3137,13 @@
       <c r="F31" s="34" t="n"/>
       <c r="G31" s="34" t="n"/>
       <c r="H31" s="34" t="n"/>
-      <c r="I31" s="34" t="inlineStr">
+      <c r="I31" s="34" t="n"/>
+      <c r="J31" s="34" t="inlineStr">
         <is>
           <t>Z</t>
         </is>
       </c>
-      <c r="J31" s="34" t="inlineStr">
+      <c r="K31" s="34" t="inlineStr">
         <is>
           <t>Effects of shade and input management on economic performance of small-scale Peruvian coffee systems</t>
         </is>
@@ -3149,12 +3164,13 @@
       <c r="F32" s="34" t="n"/>
       <c r="G32" s="34" t="n"/>
       <c r="H32" s="34" t="n"/>
-      <c r="I32" s="34" t="inlineStr">
+      <c r="I32" s="34" t="n"/>
+      <c r="J32" s="34" t="inlineStr">
         <is>
           <t>VA</t>
         </is>
       </c>
-      <c r="J32" s="34" t="inlineStr">
+      <c r="K32" s="34" t="inlineStr">
         <is>
           <t>Effects of shade and input management on economic performance of small-scale Peruvian coffee systems</t>
         </is>
@@ -3175,12 +3191,13 @@
       <c r="F33" s="34" t="n"/>
       <c r="G33" s="34" t="n"/>
       <c r="H33" s="34" t="n"/>
-      <c r="I33" s="34" t="inlineStr">
+      <c r="I33" s="34" t="n"/>
+      <c r="J33" s="34" t="inlineStr">
         <is>
           <t>VA</t>
         </is>
       </c>
-      <c r="J33" s="34" t="inlineStr">
+      <c r="K33" s="34" t="inlineStr">
         <is>
           <t>Effects of shade and input management on economic performance of small-scale Peruvian coffee systems</t>
         </is>
@@ -3201,12 +3218,13 @@
       <c r="F34" s="34" t="n"/>
       <c r="G34" s="34" t="n"/>
       <c r="H34" s="34" t="n"/>
-      <c r="I34" s="34" t="inlineStr">
+      <c r="I34" s="34" t="n"/>
+      <c r="J34" s="34" t="inlineStr">
         <is>
           <t>Z</t>
         </is>
       </c>
-      <c r="J34" s="34" t="inlineStr">
+      <c r="K34" s="34" t="inlineStr">
         <is>
           <t>Banana-coffee system cropping guide</t>
         </is>
@@ -3227,12 +3245,13 @@
       <c r="F35" s="34" t="n"/>
       <c r="G35" s="34" t="n"/>
       <c r="H35" s="34" t="n"/>
-      <c r="I35" s="34" t="inlineStr">
+      <c r="I35" s="34" t="n"/>
+      <c r="J35" s="34" t="inlineStr">
         <is>
           <t>Z</t>
         </is>
       </c>
-      <c r="J35" s="34" t="inlineStr">
+      <c r="K35" s="34" t="inlineStr">
         <is>
           <t>Banana-coffee system cropping guide</t>
         </is>
@@ -3253,7 +3272,7 @@
     <mergeCell ref="A29:A32"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="J7" r:id="rId1"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="K7" r:id="rId1"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait"/>
